--- a/membership.xlsx
+++ b/membership.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ED7804-69D0-43C9-A3FE-3D487D143EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="config" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>user_membership_id</t>
   </si>
@@ -91,9 +90,6 @@
     <t>I make this a dropdown list so you don't need to manually type it. You can configure it in this page above. The slug name must be identical with the plan slug in the admin dashboard</t>
   </si>
   <si>
-    <t>Do not change the column structure</t>
-  </si>
-  <si>
     <t>Use one of these 3 red fields for all rows as the identification of members during upload</t>
   </si>
   <si>
@@ -121,21 +117,38 @@
     <t>This field is auto calculated by the formula according to the start date and the plan duration. You can manually change it.</t>
   </si>
   <si>
-    <t>annual 闰年前一年3-1 = 闰年2-28</t>
+    <t>month_to_add</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip-membership-annual</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip-membership-semiannual</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do not change the structure of this table, change content only!</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>For the expiration calculation, generated auto by the formula. No need to touch.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -143,7 +156,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -151,7 +164,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -159,7 +172,7 @@
       <b/>
       <sz val="11"/>
       <color theme="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -167,7 +180,7 @@
       <b/>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -175,17 +188,56 @@
       <b/>
       <sz val="11"/>
       <color theme="7" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -200,18 +252,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -488,26 +544,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -544,6 +602,9 @@
       <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="L1" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -559,8 +620,12 @@
         <v>44197</v>
       </c>
       <c r="K2" s="1">
-        <f>DATE(YEAR(J2),MONTH(J2) + IF(H2 = "vip-membership-annual", 12, IF(H2 = "vip-membership-semiannual", 6, )), IF(AND(COUNT(--(YEAR(J2)&amp;"-2-29")), MONTH(J2)  = 3, DAY(J2) = 1), DAY(J2), DAY(J2) - 1))</f>
+        <f>DATE(YEAR(J2),MONTH(J2) + L2, IF(AND(COUNT(--(YEAR(J2)&amp;"-2-29")), H2 = "vip-membership-annual", MONTH(J2)  = 3, DAY(J2) = 1), DAY(J2), DAY(J2) - 1))</f>
         <v>44561</v>
+      </c>
+      <c r="L2" s="8">
+        <f>VLOOKUP(H2, config!$A$3:$B$4, 2, FALSE)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -577,11 +642,12 @@
         <v>43891</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K6" si="0">DATE(YEAR(J3),MONTH(J3) + IF(H3 = "vip-membership-annual", 12, IF(H3 = "vip-membership-semiannual", 6, )), IF(AND(COUNT(--(YEAR(J3)&amp;"-2-29")), MONTH(J3)  = 3, DAY(J3) = 1), DAY(J3), DAY(J3) - 1))</f>
+        <f t="shared" ref="K3:K6" si="0">DATE(YEAR(J3),MONTH(J3) + L3, IF(AND(COUNT(--(YEAR(J3)&amp;"-2-29")), H3 = "vip-membership-annual", MONTH(J3)  = 3, DAY(J3) = 1), DAY(J3), DAY(J3) - 1))</f>
         <v>44256</v>
       </c>
-      <c r="L3" t="s">
-        <v>31</v>
+      <c r="L3" s="8">
+        <f>VLOOKUP(H3, config!$A$3:$B$4, 2, FALSE)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -601,6 +667,10 @@
         <f t="shared" si="0"/>
         <v>43830</v>
       </c>
+      <c r="L4" s="8">
+        <f>VLOOKUP(H4, config!$A$3:$B$4, 2, FALSE)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -619,6 +689,10 @@
         <f t="shared" si="0"/>
         <v>43465</v>
       </c>
+      <c r="L5" s="8">
+        <f>VLOOKUP(H5, config!$A$3:$B$4, 2, FALSE)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -631,22 +705,27 @@
         <v>9</v>
       </c>
       <c r="J6" s="1">
-        <v>43891</v>
+        <v>44074</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>44075</v>
+        <v>44257</v>
+      </c>
+      <c r="L6" s="8">
+        <f>VLOOKUP(H6, config!$A$3:$B$4, 2, FALSE)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E012D76-56FC-4FBF-BE95-7C941EEFACB3}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>config!$A$2:$A$3</xm:f>
+            <xm:f>config!$A$3:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H6</xm:sqref>
         </x14:dataValidation>
@@ -657,144 +736,164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBDA094-A9CA-42F4-892C-DA34EE001321}">
-  <dimension ref="A1:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
+      <c r="B2" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="16" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/membership.xlsx
+++ b/membership.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>user_membership_id</t>
   </si>
@@ -134,6 +134,22 @@
   </si>
   <si>
     <t>For the expiration calculation, generated auto by the formula. No need to touch.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>leap_year</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>leap_next</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_date</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-2-30</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -252,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -265,6 +281,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -546,10 +563,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -565,10 +582,12 @@
     <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -602,11 +621,20 @@
       <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>13</v>
       </c>
@@ -620,15 +648,27 @@
         <v>44197</v>
       </c>
       <c r="K2" s="1">
-        <f>DATE(YEAR(J2),MONTH(J2) + L2, IF(AND(COUNT(--(YEAR(J2)&amp;"-2-29")), H2 = "vip-membership-annual", MONTH(J2)  = 3, DAY(J2) = 1), DAY(J2), DAY(J2) - 1))</f>
+        <f ca="1">DATE(YEAR(L2),MONTH(L2) + M2, IF(AND(N2, MOD(M2, 12) = 0, MONTH(J2)  = 3, DAY(L2) = 1), DAY(L2), DAY(L2) - 1))</f>
         <v>44561</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="1">
+        <f ca="1">IF(ISBLANK(J2), NOW(), J2)</f>
+        <v>44197</v>
+      </c>
+      <c r="M2" s="8">
         <f>VLOOKUP(H2, config!$A$3:$B$4, 2, FALSE)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <f>IF(OR(MOD(YEAR($J2),400)=0,AND(MOD(YEAR($J2),4)=0,MOD(YEAR($J2),100)&lt;&gt;0)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>IF(OR(MOD(YEAR($J2)+1,400)=0,AND(MOD(YEAR($J2)+1,4)=0,MOD(YEAR($J2)+1,100)&lt;&gt;0)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -642,15 +682,27 @@
         <v>43891</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K6" si="0">DATE(YEAR(J3),MONTH(J3) + L3, IF(AND(COUNT(--(YEAR(J3)&amp;"-2-29")), H3 = "vip-membership-annual", MONTH(J3)  = 3, DAY(J3) = 1), DAY(J3), DAY(J3) - 1))</f>
+        <f t="shared" ref="K3:K6" ca="1" si="0">DATE(YEAR(L3),MONTH(L3) + M3, IF(AND(N3, MOD(M3, 12) = 0, MONTH(J3)  = 3, DAY(L3) = 1), DAY(L3), DAY(L3) - 1))</f>
         <v>44256</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L6" ca="1" si="1">IF(ISBLANK(J3), NOW(), J3)</f>
+        <v>43891</v>
+      </c>
+      <c r="M3" s="8">
         <f>VLOOKUP(H3, config!$A$3:$B$4, 2, FALSE)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <f t="shared" ref="N3:N6" si="2">IF(OR(MOD(YEAR($J3),400)=0,AND(MOD(YEAR($J3),4)=0,MOD(YEAR($J3),100)&lt;&gt;0)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O6" si="3">IF(OR(MOD(YEAR($J3)+1,400)=0,AND(MOD(YEAR($J3)+1,4)=0,MOD(YEAR($J3)+1,100)&lt;&gt;0)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -664,15 +716,27 @@
         <v>43466</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>43830</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43466</v>
+      </c>
+      <c r="M4" s="8">
         <f>VLOOKUP(H4, config!$A$3:$B$4, 2, FALSE)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>17</v>
       </c>
@@ -686,15 +750,27 @@
         <v>43101</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>43465</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43101</v>
+      </c>
+      <c r="M5" s="8">
         <f>VLOOKUP(H5, config!$A$3:$B$4, 2, FALSE)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>18</v>
       </c>
@@ -705,15 +781,69 @@
         <v>9</v>
       </c>
       <c r="J6" s="1">
-        <v>44074</v>
+        <v>43708</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="0"/>
-        <v>44257</v>
-      </c>
-      <c r="L6" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43891</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43708</v>
+      </c>
+      <c r="M6" s="8">
         <f>VLOOKUP(H6, config!$A$3:$B$4, 2, FALSE)</f>
         <v>6</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J14" s="1">
+        <f ca="1">DATE(YEAR(NOW()), MONTH(NOW()), DAY(NOW())+365*12/12)</f>
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="12">
+        <v>43708</v>
+      </c>
+      <c r="H18" s="1">
+        <f>MONTH(G18)+6</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="12">
+        <v>44073</v>
+      </c>
+      <c r="H19" s="1">
+        <f>--G19</f>
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="12">
+        <v>44074</v>
+      </c>
+      <c r="H20" s="1">
+        <f>--G20</f>
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="1" t="e">
+        <f>--G21</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
